--- a/formatberkas/surat_keterangan_hamil.xlsx
+++ b/formatberkas/surat_keterangan_hamil.xlsx
@@ -1,89 +1,346 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FORMAT SURAT\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Nomor Surat</t>
-  </si>
-  <si>
-    <t>Bulan</t>
-  </si>
-  <si>
-    <t>No RM</t>
-  </si>
-  <si>
-    <t>Nama</t>
-  </si>
-  <si>
-    <t>0001/B.14/RSUII/IV/2020</t>
-  </si>
-  <si>
-    <t>april</t>
-  </si>
-  <si>
-    <t>tri mulyati</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="54">
+  <si>
+    <t xml:space="preserve">NO </t>
+  </si>
+  <si>
+    <t>BULAN</t>
+  </si>
+  <si>
+    <t>NOMOR RM</t>
+  </si>
+  <si>
+    <t>NAMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JANUARI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEIDI OCTAVIA </t>
+  </si>
+  <si>
+    <t>NUR WIDHYAGUSTIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YUNI LESTARI </t>
+  </si>
+  <si>
+    <t>niki wulan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEMBAR DYAHAYU </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kunti nawaruci </t>
+  </si>
+  <si>
+    <t xml:space="preserve">agustina pratiwi </t>
+  </si>
+  <si>
+    <t>astuti</t>
+  </si>
+  <si>
+    <t>usawatun hasanah</t>
+  </si>
+  <si>
+    <t>natalia sriwahyuni</t>
+  </si>
+  <si>
+    <t>SURAT KETERANGAN HAMIL</t>
+  </si>
+  <si>
+    <t>NO SURAT</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>/B.14/RSUII/I/2020</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>iis setiana</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wening </t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>/B.14/RSUII/II/2020</t>
+  </si>
+  <si>
+    <t>FEBRUARI</t>
+  </si>
+  <si>
+    <t>lina andiana</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>florentina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">titisari riski </t>
+  </si>
+  <si>
+    <t>delif nur indriani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LINA PERMATASARI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">diah arini </t>
+  </si>
+  <si>
+    <t xml:space="preserve">erisia </t>
+  </si>
+  <si>
+    <t>/B.14/RSUII/III/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARET </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUNGKI REZA </t>
+  </si>
+  <si>
+    <t>novita sari rahayu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">waliy </t>
+  </si>
+  <si>
+    <t>sariyani</t>
+  </si>
+  <si>
+    <t>maulida nur hasanah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">putri paramitha </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ratih purnama sari </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rani novitasari </t>
+  </si>
+  <si>
+    <t>FORMAT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="5">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,39 +355,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -165,7 +422,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -209,228 +466,721 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4">
+        <v>8727</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4">
+        <v>7553</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>3888</v>
-      </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="6">
+        <v>10684</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="6">
+        <v>3504</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="6">
+        <v>3969</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="6">
+        <v>3939</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="6">
+        <v>6938</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="6">
+        <v>4582</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="6">
+        <v>10503</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="6">
+        <v>10569</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="6">
+        <v>4364</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9">
+        <v>15</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="6">
+        <v>7076</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="9">
+        <v>16</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="3">
+        <v>12140</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="9">
+        <v>17</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="3">
+        <v>10088</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="9">
+        <v>18</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="3">
+        <v>8744</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>19</v>
+      </c>
+      <c r="B21" s="9">
+        <v>19</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="3">
+        <v>8204</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="9">
+        <v>20</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="3">
+        <v>12100</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>21</v>
+      </c>
+      <c r="B23" s="9">
+        <v>21</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="9">
+        <v>22</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="3">
+        <v>5563</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>23</v>
+      </c>
+      <c r="B25" s="9">
+        <v>23</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="3">
+        <v>5982</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="9">
+        <v>24</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>25</v>
+      </c>
+      <c r="B27" s="9">
+        <v>25</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="9">
+        <v>26</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>27</v>
+      </c>
+      <c r="B29" s="9">
+        <v>27</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="3">
+        <v>13306</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>